--- a/Data/ordered.xlsx
+++ b/Data/ordered.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,136 +422,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Kyllian</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Colin</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Loic</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ezgi</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Antoine</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Benjamin</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Alisher</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Christian</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Aadel</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alper</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rachel</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hui</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rıdvan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ness</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Adrien</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Claire</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Damien</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Geoffroy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Minh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Georgina</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mustafa</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/ordered.xlsx
+++ b/Data/ordered.xlsx
@@ -424,44 +424,44 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Loic</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Alisher</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Antoine</t>
+          <t>Geoffroy</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Damien</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Rıdvan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aadel</t>
+          <t>Alisher</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rıdvan</t>
+          <t>Minh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mathieu</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,46 +471,46 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Damien</t>
+          <t>Claire</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alper</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Geoffroy</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hui</t>
+          <t>Ezgi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adrien</t>
+          <t>Ness</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Mehmet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Loic</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ness</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,46 +520,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Minh</t>
+          <t>Alper</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rıdvan</t>
+          <t>Adrien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colin</t>
+          <t>Aadel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kyllian</t>
+          <t>Hui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Rıdvan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ezgi</t>
+          <t>Rıdvan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rıdvan</t>
+          <t>Kyllian</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>

--- a/Data/ordered.xlsx
+++ b/Data/ordered.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,197 +424,184 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Loic</t>
+          <t>Minh</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Antoine</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Geoffroy</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Damien</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Rıdvan</t>
+          <t>Aadel</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alisher</t>
+          <t>Kyllian</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minh</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Mustafa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mustafa</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Claire</t>
+          <t>Rıdvan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Damien</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Benjamin</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rachel</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ezgi</t>
+          <t>Loic</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ness</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
+          <t>Georgina</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Rıdvan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alisher</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Colin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Georgina</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Alper</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Adrien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aadel</t>
+          <t>Ness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Geoffroy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adrien</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Hui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Rıdvan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mathieu</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rıdvan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kyllian</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>Ezgi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alper</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Antoine</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rıdvan</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/ordered.xlsx
+++ b/Data/ordered.xlsx
@@ -424,132 +424,132 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Kyllian</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Colin</t>
+          <t>Alisher</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Loic</t>
+          <t>Aadel</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ezgi</t>
+          <t>Mathieu</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antoine</t>
+          <t>Hui</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathieu</t>
+          <t>Kyllian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Minh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alisher</t>
+          <t>Adrien</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Aadel</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alper</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Loic</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hui</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Alper</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ness</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Rıdvan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ness</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Adrien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Georgina</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ezgi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mustafa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Claire</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Damien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Geoffroy</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Minh</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Georgina</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Damien</t>
         </is>
       </c>
     </row>

--- a/Data/ordered.xlsx
+++ b/Data/ordered.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,184 +424,174 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Minh</t>
+          <t>Georgina</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Aadel</t>
-        </is>
-      </c>
+          <t>Damien</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kyllian</t>
+          <t>Alisher</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathieu</t>
+          <t>Rıdvan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rıdvan</t>
-        </is>
-      </c>
+          <t>Loic</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Damien</t>
+          <t>Alper</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Minh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Loic</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Georgina</t>
-        </is>
-      </c>
+          <t>Ness</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rıdvan</t>
+          <t>Hui</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Adrien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alisher</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Colin</t>
-        </is>
-      </c>
+          <t>Mustafa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ness</t>
+          <t>Kyllian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Ezgi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Geoffroy</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Adrien</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Hui</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ezgi</t>
+          <t>Maman</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alper</t>
+          <t>Aadel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>Antoine</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rıdvan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
